--- a/code/figure_2_subplots/rmsd.xlsx
+++ b/code/figure_2_subplots/rmsd.xlsx
@@ -13,31 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>Pi (mM)</t>
-  </si>
-  <si>
-    <t>ADP (uM)</t>
-  </si>
-  <si>
-    <t>PCr (mM)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>ATP (mM)</t>
-  </si>
-  <si>
-    <t>Force (N)</t>
-  </si>
-  <si>
-    <t>rmsd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Row</t>
   </si>
@@ -115,47 +91,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>2.0952101411597912</v>
+        <v>1.9544909256542813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.080051170953243989</v>
+        <v>0.068203510705455273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>2.958325752597549</v>
+        <v>1.9223590216959627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10130282889403856</v>
+        <v>0.11365897061929268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -163,10 +139,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>46.337773531782375</v>
+        <v>42.626229900718023</v>
       </c>
     </row>
   </sheetData>

--- a/code/figure_2_subplots/rmsd.xlsx
+++ b/code/figure_2_subplots/rmsd.xlsx
@@ -13,7 +13,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Pi (mM)</t>
+  </si>
+  <si>
+    <t>ADP (uM)</t>
+  </si>
+  <si>
+    <t>PCr (mM)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>ATP (mM)</t>
+  </si>
+  <si>
+    <t>Force (N)</t>
+  </si>
+  <si>
+    <t>rmsd</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Pi (mM)</t>
+  </si>
+  <si>
+    <t>ADP (uM)</t>
+  </si>
+  <si>
+    <t>PCr (mM)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>ATP (mM)</t>
+  </si>
+  <si>
+    <t>Force (N)</t>
+  </si>
+  <si>
+    <t>rmsd</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -91,15 +139,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0">
         <v>1.9544909256542813</v>
@@ -107,7 +155,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0">
         <v>0.068203510705455273</v>
@@ -115,7 +163,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0">
         <v>1.9223590216959627</v>
@@ -123,7 +171,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0">
         <v>0.11365897061929268</v>
@@ -131,7 +179,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -139,7 +187,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0">
         <v>42.626229900718023</v>
